--- a/medicine/Handicap/Forrest_Gump/Forrest_Gump.xlsx
+++ b/medicine/Handicap/Forrest_Gump/Forrest_Gump.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Forrest Gump est une comédie dramatique américaine réalisée par Robert Zemeckis et sortie en 1994. Il s'agit d'une adaptation du roman du même nom de l'écrivain Winston Groom, paru en 1986.
 Le film relate la vie mouvementée de Forrest Gump, incarné par Tom Hanks, un « simple d'esprit » originaire de l'Alabama qui se retrouve impliqué — le plus souvent involontairement — dans les principaux événements qui marquent l'histoire des États-Unis, entre les années 1950 et les années 1980, Forrest en étant même parfois l'instigateur.
-Le film a été distingué par six Oscars lors de la cérémonie de 1995, dont ceux du meilleur film, du meilleur réalisateur pour Robert Zemeckis et du meilleur acteur pour Tom Hanks. En 2011, le film est sélectionné par la National Film Registry de la Bibliothèque du Congrès pour y être conservé, en raison de son intérêt « culturellement, historiquement ou esthétiquement important »[1].
+Le film a été distingué par six Oscars lors de la cérémonie de 1995, dont ceux du meilleur film, du meilleur réalisateur pour Robert Zemeckis et du meilleur acteur pour Tom Hanks. En 2011, le film est sélectionné par la National Film Registry de la Bibliothèque du Congrès pour y être conservé, en raison de son intérêt « culturellement, historiquement ou esthétiquement important ».
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1981, une plume d'oiseau, volant dans les airs, finit par atterrir aux pieds de Forrest Gump, un homme simple d'esprit[a]. Assis sur un banc dans la ville de Savannah en Géorgie, Forrest attend l'autobus. Au fil des différents interlocuteurs qui vont, à tour de rôle, s’asseoir à côté de lui, Forrest va leur raconter la fabuleuse et trépidante histoire de sa vie. En effet, à l'image de la plume (que l'on apercevra aussi à la fin du film) qui se laisse porter par le vent, Forrest va se laisser porter par les événements de sa vie aux États-Unis pendant la seconde moitié du XXe siècle.
 En 1951, à Greenbow en Alabama, Forrest alors enfant a les jambes équipées d'orthèses pour redresser sa colonne vertébrale. À cause de cet appareillage, il ne peut pas marcher normalement. À cette époque, Forrest vit avec sa mère, Mme Gump, qui gère seule une pension de famille hébergeant plusieurs pensionnaires. Parmi ceux-ci figure un jeune rocker inconnu, un certain Elvis Aaron Presley qui joue de la guitare pour Forrest[b]. S'amusant des mouvements de danse saccadés du garçon (du fait de son appareillage), le rocker décide de les intégrer à ses prestations scéniques.
@@ -556,7 +570,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Forrest Gump
 Réalisation : Robert Zemeckis
@@ -575,12 +591,12 @@
 Format : couleur (partiellement noir et blanc) — 2,35:1 — 35 mm — son Dolby SR / DTS / SDDS
 Genre : comédie dramatique
 Durée : 142 minutes
-Dates de sortie[2] :
+Dates de sortie :
 États-Unis : 6 juillet 1994
-Belgique, France : 5 octobre 1994, reprise le 28 octobre 2015[3]
+Belgique, France : 5 octobre 1994, reprise le 28 octobre 2015
 Classification :
-États-Unis : PG-13, accord parental recommandé, film déconseillé aux moins de 13 ans[4]
-France : tous publics[5]</t>
+États-Unis : PG-13, accord parental recommandé, film déconseillé aux moins de 13 ans
+France : tous publics</t>
         </is>
       </c>
     </row>
@@ -608,7 +624,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tom Hanks (VF : Jean-Philippe Puymartin) : Forrest Gump
 Michael Conner Humphreys (en) (VF : Pascal Grull) : Forrest Gump enfant
@@ -618,18 +636,18 @@
 Mykelti Williamson (VF : Jacques Martial) : Benjamin « Bubba » Bufford
 Sally Field (VF : Marion Game) : Mme Gump
 Sam Anderson (VF : Philippe Peythieu) : le principal
-Harold G. Herthum[6] (VF : Yves Barsacq) : le docteur
+Harold G. Herthum (VF : Yves Barsacq) : le docteur
 Afemo Omilami (VF : Mario Santini) : le sergent instructeur de l'armée
 Siobhan Fallon Hogan (VF : Régine Teyssot) : Dorothy Harris
 Geoffrey Blake (VF : Patrick Laplace) : Wesley
-Tim Perry[7] (VF : Éric Missoffe) : le hippie
+Tim Perry (VF : Éric Missoffe) : le hippie
 Peter Dobson (apparence) et Kurt Russell (voix, non crédité) (VF : Serge Faliu) : Elvis Presley jeune
 Mary Ellen Trainor (VF : Sophie Arthuys) : la babysitter de Forrest Gump Junior
 Haley Joel Osment (VF : Hervé Grull) : Forrest Gump Junior
 Marla Sucharetza (VF : Marie-Laure Beneston) : Leonore
 Michael Jace
 Voix additionnelles : Gilbert Lévy
- Source et légende : version française (VF) sur RS Doublage[8] et AlloDoublage[9]</t>
+ Source et légende : version française (VF) sur RS Doublage et AlloDoublage</t>
         </is>
       </c>
     </row>
@@ -659,27 +677,176 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse du projet
-« Le scénariste, Eric Roth, se démarque considérablement du livre. Nous avons modifié plusieurs éléments du livre, mettant l'histoire d'amour au premier plan et les aventures fantastiques au second plan. D’autre part, le livre était cynique et plus froid que le film. Dans le film, Gump est un personnage complètement honnête, qui ne ment jamais. Il n'a aucun projet et aucun avis sur quoi que ce soit sauf sur Jenny, sa mère et Dieu. »— Déclaration de Robert Zemeckis[10].
-Le film est adapté du roman homonyme de Winston Groom publié en 1986. Toutefois, le scénario se focalise principalement sur les onze premiers chapitres du roman, « sautant » en avant à la fin, avec la fondation de Bubba Gump Shrimp Co. et la rencontre avec Forrest, Jr. En plus d'avoir éludé certains passages du roman, le film ajoute plusieurs aspects à la vie de Gump, comme ses tiges en fer sur les jambes quand il est enfant ainsi que son périple à pied à travers les États-Unis[11],[12]. Sa personnalité est également changée : dans le film, il est moins sujet au syndrome du savant alors que, dans le roman, il fait un score parfait dans une classe de physique avancée. Dans le roman, Gump est également astronaute, lutteur professionnel et joueur d'échecs[12]. De son côté, le personnage de son amie Jenny est fortement simplifié. Si dans le roman, elle se marie et fonde une famille, elle passe au contraire son temps à s'aventurer dans le film, traversant ainsi plusieurs périodes contre-culturelles, telles que le Flower Power et le Disco, avant de vivre une rapide histoire d'amour avec Forrest, puis en devenant serveuse et mère célibataire.
-Terry Gilliam a été pressenti pour réaliser le film, mais il a refusé l'offre[13], tout comme Barry Sonnenfeld qui préféra se concentrer sur Les Valeurs de la famille Addams[14].
-Attribution des rôles
-Avant de revenir à Tom Hanks, le rôle-titre a été proposé par Robert Zemeckis à plusieurs acteurs dont Bill Murray et John Travolta. Après avoir refusé le rôle, ce dernier a déclaré que « refuser le rôle de Forrest Gump a été une grande erreur. »[15][réf. à confirmer] Tom Hanks signe finalement un contrat de 7 millions de dollars pour jouer le rôle. De plus, ce contrat contient une clause d’intéressement aux recettes. Le rôle lui rapporte finalement plus de 35 millions de dollars[16].
-Le jeune Haley Joel Osment, qui incarne le fils de Forrest, trouve ici son premier rôle. Quelques années plus tard, il jouera dans Sixième Sens de M. Night Shyamalan (1999)[15],[17].
+          <t>Genèse du projet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Le scénariste, Eric Roth, se démarque considérablement du livre. Nous avons modifié plusieurs éléments du livre, mettant l'histoire d'amour au premier plan et les aventures fantastiques au second plan. D’autre part, le livre était cynique et plus froid que le film. Dans le film, Gump est un personnage complètement honnête, qui ne ment jamais. Il n'a aucun projet et aucun avis sur quoi que ce soit sauf sur Jenny, sa mère et Dieu. »— Déclaration de Robert Zemeckis.
+Le film est adapté du roman homonyme de Winston Groom publié en 1986. Toutefois, le scénario se focalise principalement sur les onze premiers chapitres du roman, « sautant » en avant à la fin, avec la fondation de Bubba Gump Shrimp Co. et la rencontre avec Forrest, Jr. En plus d'avoir éludé certains passages du roman, le film ajoute plusieurs aspects à la vie de Gump, comme ses tiges en fer sur les jambes quand il est enfant ainsi que son périple à pied à travers les États-Unis,. Sa personnalité est également changée : dans le film, il est moins sujet au syndrome du savant alors que, dans le roman, il fait un score parfait dans une classe de physique avancée. Dans le roman, Gump est également astronaute, lutteur professionnel et joueur d'échecs. De son côté, le personnage de son amie Jenny est fortement simplifié. Si dans le roman, elle se marie et fonde une famille, elle passe au contraire son temps à s'aventurer dans le film, traversant ainsi plusieurs périodes contre-culturelles, telles que le Flower Power et le Disco, avant de vivre une rapide histoire d'amour avec Forrest, puis en devenant serveuse et mère célibataire.
+Terry Gilliam a été pressenti pour réaliser le film, mais il a refusé l'offre, tout comme Barry Sonnenfeld qui préféra se concentrer sur Les Valeurs de la famille Addams.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant de revenir à Tom Hanks, le rôle-titre a été proposé par Robert Zemeckis à plusieurs acteurs dont Bill Murray et John Travolta. Après avoir refusé le rôle, ce dernier a déclaré que « refuser le rôle de Forrest Gump a été une grande erreur. »[réf. à confirmer] Tom Hanks signe finalement un contrat de 7 millions de dollars pour jouer le rôle. De plus, ce contrat contient une clause d’intéressement aux recettes. Le rôle lui rapporte finalement plus de 35 millions de dollars.
+Le jeune Haley Joel Osment, qui incarne le fils de Forrest, trouve ici son premier rôle. Quelques années plus tard, il jouera dans Sixième Sens de M. Night Shyamalan (1999),.
 Dans la scène du premier trajet de Forrest en bus, le premier garçon lui refusant la place n'est autre qu'Alexander Zemeckis (fils de Robert), tandis que la fille qui refuse à son tour en hochant la tête est jouée par Elizabeth Hanks (fille de Tom). Lorsque Forrest court à travers le pays, sauf pour les très gros plans, l'homme que l'on voit courir n'est autre qu'un des frères de Tom Hanks, Jim, qui est crédité à la fin du générique comme « Running man ».
-Si Peter Dobson interprète physiquement The King, la voix du personnage d'Elvis est celle de Kurt Russell qui devint célèbre en interprétant le chanteur dans le film biographique de 1979, Le Roman d'Elvis. Kurt Russell n'est cependant pas crédité au générique de Forrest Gump[15][réf. à confirmer].
-Tournage
-Le tournage débute en août 1993 et se termine en décembre de la même année[18].
-Bien que la majeure partie de l'histoire se déroule en Alabama, le tournage a principalement lieu en Caroline du Sud à Beaufort[19] et en Géorgie à Savannah, où débute le film avec Forrest Gump assis sur un banc. La scène avec l'incendie au Vietnam a été tournée sur l'île barrière de Fripp Island. La séquence du marathon se termine sur une route en plein cœur de Monument Valley.
-Certaines scènes ont été tournées en Caroline du Nord, notamment au Domaine Biltmore, à Asheville ou lorsque Forrest court sur la Blue Ridge Parkway[20]. Les scènes sur le campus ont été tournées à l'université de Californie du Sud.
+Si Peter Dobson interprète physiquement The King, la voix du personnage d'Elvis est celle de Kurt Russell qui devint célèbre en interprétant le chanteur dans le film biographique de 1979, Le Roman d'Elvis. Kurt Russell n'est cependant pas crédité au générique de Forrest Gump[réf. à confirmer].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage débute en août 1993 et se termine en décembre de la même année.
+Bien que la majeure partie de l'histoire se déroule en Alabama, le tournage a principalement lieu en Caroline du Sud à Beaufort et en Géorgie à Savannah, où débute le film avec Forrest Gump assis sur un banc. La scène avec l'incendie au Vietnam a été tournée sur l'île barrière de Fripp Island. La séquence du marathon se termine sur une route en plein cœur de Monument Valley.
+Certaines scènes ont été tournées en Caroline du Nord, notamment au Domaine Biltmore, à Asheville ou lorsque Forrest court sur la Blue Ridge Parkway. Les scènes sur le campus ont été tournées à l'université de Californie du Sud.
 La scène finale du film où Forrest s'arrête de courir a été tournée sur la route 666 au nord-est de Kayenta, en Arizona. Lorsque le rôle de Forrest Gump est proposé à Tom Hanks, il doit se trouver à New York pour filmer Philadelphia. Il demande donc à ce que la scène soit tournée près de là-bas. Robert Zemeckis accepte et choisit la ville de Saranac Lake dans l'État de New York. Toutefois, les conditions météorologiques ne permettant pas un tournage correct, il décide finalement d'aller au nord-est de l'Arizona[réf. nécessaire].
-Effets visuels
-Ken Ralston et son équipe d'Industrial Light &amp; Magic s'occupent des effets spéciaux du film en utilisant des images de synthèse. Tom Hanks a d'abord été filmé devant un écran bleu avec des marques de référence pour coller aux archives vidéo[21]. Les mouvements des lèvres des personnalités sur les images d'archives ont même été modifiés numériquement pour coller aux nouveaux dialogues[10]. Grâce, notamment, au morphing et à la rotoscopie, l'acteur a été intégré à ces images d'archives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Effets visuels</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ken Ralston et son équipe d'Industrial Light &amp; Magic s'occupent des effets spéciaux du film en utilisant des images de synthèse. Tom Hanks a d'abord été filmé devant un écran bleu avec des marques de référence pour coller aux archives vidéo. Les mouvements des lèvres des personnalités sur les images d'archives ont même été modifiés numériquement pour coller aux nouveaux dialogues. Grâce, notamment, au morphing et à la rotoscopie, l'acteur a été intégré à ces images d'archives.
 Lorsque le lieutenant Dan se retrouve amputé des jambes, beaucoup avaient à l'époque pensé que Gary Sinise avait été doublé par un véritable infirme. En réalité, l'acteur avait des chaussettes bleues masquant entièrement ses avant-jambes jusqu'aux bandages ou bouts de pantalons simulant la limite des amputations. Les avant-jambes de l'acteur ont été, par la suite, effacés par ordinateur en rajoutant des éléments comme un morceau de drap du lit d'hôpital, un touret disposé sur le sol de l'appartement du personnage ou encore un morceau du bord du crevettier.
 Quand Forrest Gump devient un prodige du ping-pong, Tom Hanks est en fait guidé par des sons de balles frappées et reproduit les gestes. Puis les balles ont été rajoutées numériquement.
-Musique
-Forrest Gump – Original Motion Picture Score
-La bande originale du film est composée et dirigée par Alan Silvestri, qui avait déjà travaillé avec Robert Zemeckis sur À la poursuite du diamant vert, la trilogie Retour vers le futur, Qui veut la peau de Roger Rabbit et La mort vous va si bien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Forrest Gump – Original Motion Picture Score</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bande originale du film est composée et dirigée par Alan Silvestri, qui avait déjà travaillé avec Robert Zemeckis sur À la poursuite du diamant vert, la trilogie Retour vers le futur, Qui veut la peau de Roger Rabbit et La mort vous va si bien.
 Listes des titres
 Note : les morceaux ne sont pas nécessairement cités dans l'ordre de diffusion dans le film.
 I'm Forrest...Forrest Gump (2:41) (musique du générique)
@@ -703,8 +870,47 @@
 Jenny's Grave (1:27)
 I'll Be Right Here (:49)
 Suite From Forrest Gump (6:34)
-Forrest Gump: The Soundtrack
-Disque 1
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Forrest Gump: The Soundtrack</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Disque 1
 Hound Dog (Elvis Presley) – 2:16 (scène du film avec Elvis Presley dans la maison des Gump puis à la télévision)
 Rebel Rouser (Duane Eddy) – 2:21 (Forrest est poursuivi par des garçons en camionnette puis traverse un terrain de football américain)
 (I Don't Know Why) But I Do (Clarence « Frogman » Henry) – 2:18 (Forrest attend Jenny sous la pluie)
@@ -739,7 +945,47 @@
 On the Road Again (Willie Nelson) – 2:29 (la cinquième chanson du marathon de Forrest)
 Against the Wind (Bob Seger &amp; the Silver Bullet Band) – 5:33 (Forrest court à travers les États-Unis et crée le "smiley")
 Forrest Gump Suite (Alan Silvestri) – 8:49
-Autres chansons présentes dans le film
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Autres chansons présentes dans le film</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des autres chansons présentes dans le film
 Lovesick Blues - Hank Williams (à la radio dans la scène où Forrest jeune se retrouve coincé dans une grille d'égout)
 Sugar Shack - Jimmy Gilmer And The Fireballs (dans la scène où Forrest est dans le dortoir de l'université de Jenny, lorsque la caméra révèle sa colocataire)
@@ -762,70 +1008,147 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Forrest_Gump</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Forrest_Gump</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Accueil critique
-Forrest Gump reçoit un accueil critique globalement positif. Sur le site agrégateur de critiques Rotten Tomatoes, le film est crédité d'un score de 71 % d'avis favorables, sur la base de 103 critiques collectées et une note moyenne de 7,51/10 ; le consensus du site indique : « Forrest Gump est peut-être un film trop sentimental avec un message quelque peu problématique, mais sa douceur et son charme sont généralement suffisants pour qu'il se rapproche de la vraie profondeur et de la grâce »[22]. Sur Metacritic, le film obtient une note moyenne pondérée de 82 sur 100, sur la base de 20 critiques collectées ; le consensus du site indique : « Avis généralement favorables »[23].
-En France, le site spécialisé Allociné donne une note moyenne de 2,6 sur 5, sur la base de cinq critiques de presse collectées[24]. Il obtient toutefois de la part des spectateurs une note de 4,6 étoiles sur 5, sur la base de 2 876 avis collectés[25], qu'il a toujours dans les années 2020, quand il caracole en tête du classement des 300 meilleurs films de tous les temps selon les avis des téléspectateurs sur la base, cette fois, de 66 910 avis collectés, devant "La Liste de Schindler", "La ligne verte", "12 hommes en colère", "Le Parrain", "Les évadés", "Le Seigneur des anneaux : le retour du roi", "Le Roi lion", "Vol au-dessus d'un nid de coucou" et "The Dark Knight, Le Chevalier Noir"[26].
-Box-office
-Lors de son exploitation, le film rapporte 679 838 260 dollars au box-office mondial[27] pour un budget de production estimé à 55 millions de dollars. Sur le sol français, Forrest Gump, sorti dans 334 salles, réalise 3 963 919 entrées[28].
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forrest Gump reçoit un accueil critique globalement positif. Sur le site agrégateur de critiques Rotten Tomatoes, le film est crédité d'un score de 71 % d'avis favorables, sur la base de 103 critiques collectées et une note moyenne de 7,51/10 ; le consensus du site indique : « Forrest Gump est peut-être un film trop sentimental avec un message quelque peu problématique, mais sa douceur et son charme sont généralement suffisants pour qu'il se rapproche de la vraie profondeur et de la grâce ». Sur Metacritic, le film obtient une note moyenne pondérée de 82 sur 100, sur la base de 20 critiques collectées ; le consensus du site indique : « Avis généralement favorables ».
+En France, le site spécialisé Allociné donne une note moyenne de 2,6 sur 5, sur la base de cinq critiques de presse collectées. Il obtient toutefois de la part des spectateurs une note de 4,6 étoiles sur 5, sur la base de 2 876 avis collectés, qu'il a toujours dans les années 2020, quand il caracole en tête du classement des 300 meilleurs films de tous les temps selon les avis des téléspectateurs sur la base, cette fois, de 66 910 avis collectés, devant "La Liste de Schindler", "La ligne verte", "12 hommes en colère", "Le Parrain", "Les évadés", "Le Seigneur des anneaux : le retour du roi", "Le Roi lion", "Vol au-dessus d'un nid de coucou" et "The Dark Knight, Le Chevalier Noir".
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Forrest_Gump</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Forrest_Gump</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de son exploitation, le film rapporte 679 838 260 dollars au box-office mondial pour un budget de production estimé à 55 millions de dollars. Sur le sol français, Forrest Gump, sorti dans 334 salles, réalise 3 963 919 entrées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Distinctions principales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Source (avec liste plus complète des distinctions) : Internet Movie Database[29]:
-Récompenses
-Oscars 1995
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Source (avec liste plus complète des distinctions) : Internet Movie Database:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Distinctions principales</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Oscars 1995
 Meilleur film
 Meilleur réalisateur pour Robert Zemeckis
 Meilleur scénario adapté pour Eric Roth
@@ -843,9 +1166,43 @@
 Meilleur acteur dans un second rôle pour Gary Sinise.
 People's Choice Awards 1995
 Meilleur film
-Meilleur film dramatique
-Nominations
-Oscars 1995
+Meilleur film dramatique</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Distinctions principales</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oscars 1995
 Meilleur acteur dans un second rôle pour Gary Sinise
 Meilleure direction artistique pour Rick Carter et Nancy Haigh
 Meilleure photographie pour Don Burgess
@@ -866,51 +1223,91 @@
 Meilleure actrice dans un second rôle pour Sally Field
 Meilleure photographie pour Don Burgess
 Meilleur montage pour Arthur Schmidt
-Conservation
-En 2011, le film est sélectionné par le National Film Registry de la bibliothèque du Congrès américain pour y être conservé, en raison de son intérêt « culturellement, historiquement ou esthétiquement important »[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Distinctions principales</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, le film est sélectionné par le National Film Registry de la bibliothèque du Congrès américain pour y être conservé, en raison de son intérêt « culturellement, historiquement ou esthétiquement important ».
 			Brique avec l'inscription « Forrest Gump » devant le Lucas Theater à Savannah en Géorgie.
 			Statue de cire représentant Forrest Gump assis sur son banc ; Innovative Film City de Bangalore en Inde.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Forrest_Gump</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Forrest_Gump</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Événements de l'histoire américaine abordés dans le film
-Grâce au procédé d'insertion du personnage dans des prises de vues réelles de l'époque, Forrest Gump est fortement impliqué dans l'histoire de son pays. Il rencontre notamment les présidents américains John F. Kennedy, Lyndon B. Johnson et Richard Nixon, les chanteurs Elvis Presley et John Lennon ainsi que le militant Jerry Rubin.
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Événements de l'histoire américaine abordés dans le film</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Grâce au procédé d'insertion du personnage dans des prises de vues réelles de l'époque, Forrest Gump est fortement impliqué dans l'histoire de son pays. Il rencontre notamment les présidents américains John F. Kennedy, Lyndon B. Johnson et Richard Nixon, les chanteurs Elvis Presley et John Lennon ainsi que le militant Jerry Rubin.
 Le film fait aussi référence aux différents faits divers concernant les hommes politiques américains qui se sont fait tirer dessus lors de leurs sorties en public (avec les vraies images d'archives). Si George Wallace et Ronald Reagan ont été atteints mais ont tous deux survécu, cela n'a pas été le cas de John F. Kennedy. Le film reprend aussi des extraits d'autres films célèbres, comme Naissance d'une nation (1915) de D. W. Griffith.
 Les événements suivants ne sont pas nécessairement classés par ordre chronologique.
 La mère de Forrest l'aurait prénommé ainsi en mémoire de Nathan Bedford Forrest, un des fondateurs du Ku Klux Klan, pour souligner le fait que, parfois dans la vie, « on fait des choses qui n'ont pas beaucoup de sens ». Forrest raconte d'ailleurs cette anecdote à une jeune femme noire qui attend l'autobus à côté de lui.
 La maison des Gump accueille un Elvis Presley alors inconnu, que Forrest inspire pour son fameux jeu de jambes (du fait de ses orthèses) pendant que le futur « King » joue la chanson Hound Dog. Plus tard dans le film, grâce aux paroles qu'il dira sur le plateau d'une émission de télévision après être rentré de Chine, Forrest inspirera au chanteur John Lennon sa célèbre chanson Imagine.
-Durant son service au Viet Nam, quand Forrest affirme : « On nous faisait faire de longues marches, on était toujours à la recherche d'un dénommé "Charlie" », il fait ici référence aux Vietcongs, « VC » en langage militaire et « Victor Charlie » en langage radio OTAN, devenu simplement « Charlie »[30].
+Durant son service au Viet Nam, quand Forrest affirme : « On nous faisait faire de longues marches, on était toujours à la recherche d'un dénommé "Charlie" », il fait ici référence aux Vietcongs, « VC » en langage militaire et « Victor Charlie » en langage radio OTAN, devenu simplement « Charlie ».
 Lors de sa rencontre avec le président John F. Kennedy, on peut remarquer, quand Forrest va au toilettes, la présence du « téléphone rouge », la célèbre ligne de communication entre les deux blocs lors de la guerre froide ; on peut aussi y apercevoir une photo dédicacée de Marilyn Monroe, le président JFK ayant eu des relations tumultueuses avec cette célèbre star de cinéma.
-Forrest est présent lors du refus du gouverneur de l'Alabama George Wallace de laisser entrer deux étudiants noirs, Vivian Malone et James Hood, au sein de l'université d’Alabama, le 11 juin 1963 (Stand in the Schoolhouse Door (en))[31],[32],[33].
+Forrest est présent lors du refus du gouverneur de l'Alabama George Wallace de laisser entrer deux étudiants noirs, Vivian Malone et James Hood, au sein de l'université d’Alabama, le 11 juin 1963 (Stand in the Schoolhouse Door (en)).
 Lors de son retour du Vietnam, après avoir retrouvé Jenny parmi les pacifistes venus manifester au Capitole à Washington contre la guerre en octobre 1967, Forrest rencontre des membres du Black Panther Party, auxquels il est présenté par un étudiant de Berkeley. À cette occasion, il rencontre aussi l'activiste Abbie Hoffman, alors vêtu d'une chemise aux couleurs des États-Unis (Forrest clame dans ses récits « Il portait un drapeau américain en guise de chemise »).
-Par ailleurs, lors de la scène où son microphone est coupé alors qu'il s'adresse à la foule anti-guerre du Vietnam au monument de Washington, on peut lire sur ses lèvres : « Sometimes when people go to Vietnam, they go home to their mommas without any legs. Sometimes they don't go home at all. That's a bad thing. That's all I have to say about that » (« Quelquefois, quand les gens vont au Vietnam, ils rentrent chez leurs mamans sans jambes. Quelquefois, ils ne rentrent pas du tout. C'est moche. C'est tout ce que j'ai à dire à ce sujet »)[34].
+Par ailleurs, lors de la scène où son microphone est coupé alors qu'il s'adresse à la foule anti-guerre du Vietnam au monument de Washington, on peut lire sur ses lèvres : « Sometimes when people go to Vietnam, they go home to their mommas without any legs. Sometimes they don't go home at all. That's a bad thing. That's all I have to say about that » (« Quelquefois, quand les gens vont au Vietnam, ils rentrent chez leurs mamans sans jambes. Quelquefois, ils ne rentrent pas du tout. C'est moche. C'est tout ce que j'ai à dire à ce sujet »).
 Durant la période de la Détente qui commence au début de 1963, les États-Unis tentèrent un rapprochement avec la Chine qui n'avait plus d'alliés, la rupture sino-soviétique de 1964 étant définitive. Ce rapprochement débutera par des relations secrètes entre Pékin et Washington et se manifestera lors de la « diplomatie du ping-pong », des compétitions de tennis de table dont Forrest Gump est, dans le film, l'un des fervents représentants.
 Pendant cette séquence, alors que tout le monde regarde, fasciné, Forrest faire ses essais au ping-pong dans un local des services spéciaux de l'armée, personne ne remarque pendant ce temps-là le poste de télévision allumé dans la salle de repos, qui diffuse les images en direct de l'astronaute Neil Armstrong durant la mission Apollo 11, alors que celui-ci est en train de faire ses premiers pas et de dire ses paroles historiques sur le sol lunaire, le 21 juillet 1969.
 Dans le film, Forrest dénonce de manière involontaire ce qui deviendra l'affaire du Watergate en 1972, qui conduira à la démission de Richard Nixon en 1974. Les lumières qu'il aperçoit dans l'immeuble d'en face et qui l'empêchent de dormir sont en fait les lampes torches du commando chargé de poser un appareil d'écoute dans la chambre des démocrates (alors adversaires de Richard Nixon) à l'intérieur du Watergate, un grand hôtel de Washington. Dans la réalité, c'est le concierge de l'hôtel, prévenant la police d'un cambriolage, qui déclenchera l'affaire du Watergate. Par ailleurs, dans le film, c'est Nixon lui-même qui fournit la chambre d'hôtel d'où Forrest aperçoit les lumières.
@@ -921,9 +1318,43 @@
 Il est fait allusion au SIDA lorsque Jenny annonce à Forrest qu'elle est atteinte d'un « virus inconnu que les médecins ne peuvent pas guérir ». En effet, à ce moment du film, les protagonistes sont en 1981 (comme l'indique la publicité pour une voiture, élue « automobile de l'année 1981 »).
 Forrest est également l'inventeur involontaire du smiley graphique. Pendant la période où il court à travers les États-Unis, un homme lui demande s'il peut faire des tee-shirts avec son portrait dessus, mais l'homme n'a pas d'appareil photo et ne peut pas dessiner non plus ; c'est alors qu'une voiture éclabousse les deux hommes, qui se retrouvent couverts de boue. Forrest, s'essuyant le visage avec un tee-shirt jaune, y laisse le dessin mondialement connu d'une tête ronde souriante, puis s'en va en criant à son interlocuteur : « Gardez le sourire ! » Ce smiley rappelle aussi fortement la figure célèbre de la Sainte Face de Jésus-Christ.
 Par ailleurs, Forrest inspire également sans le vouloir la création des célèbres autocollants pour voitures avec la mention « Shit happens », lorsqu’un homme lui demande de l'aide pour trouver un slogan pour ses autocollants ; à cet instant, Forrest marche dans une crotte de chien et, lorsque l'homme le lui fait remarquer, Forrest lui répond : « Ça arrive ! » (« Shit happens », grossièrement « la merde, ça peut arriver »).
-Quand Forrest attend le bus, il semble que la jeune femme noire à côté de lui sur le banc soit une référence à Rosa Parks, figure de la ségrégation aux États-Unis. L'allusion aux pieds de la jeune femme est une référence à l'histoire de Rosa Parks, qui prit le bus car elle avait mal aux pieds.[réf. souhaitée]
-Anachronismes
-Le film recèle également quelques anachronismes[35] :
+Quand Forrest attend le bus, il semble que la jeune femme noire à côté de lui sur le banc soit une référence à Rosa Parks, figure de la ségrégation aux États-Unis. L'allusion aux pieds de la jeune femme est une référence à l'histoire de Rosa Parks, qui prit le bus car elle avait mal aux pieds.[réf. souhaitée]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Anachronismes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Le film recèle également quelques anachronismes :
 lorsque Forrest et Bubba arrivent au Viet Nam par hélicoptère, on peut entendre la chanson Fortunate Son du groupe Creedence Clearwater Revival. L'action se passe alors en 1966 alors que la chanson n'est sortie qu'en 1969. En revanche, les autres chansons entendues durant cette période du film suivent bien la chronologie du temps puisqu'elles sont sorties entre 1965 et 1967 (à l'exception de Hello, I Love You des Doors et Mrs Robinson par Simon and Garfunkel, qui sont sorties un an plus tard).
 lorsque Forrest reçoit une lettre de la société Apple dont il est devenu actionnaire majoritaire, la lettre est à la date de 1975 et comporte le logo représentant la pomme multicolore. Or, ce logo n'a été créé qu'en 1977 (soit deux ans plus tard), celui de 1975 étant censé représenter Isaac Newton sous un pommier. Par ailleurs, la société se nommait à l'époque « Apple Computer &amp; Co » ;
 			Le premier logo d'Apple Computer &amp; Co avec Isaac Newton sous un pommier (dessiné par Ronald Wayne).
@@ -933,39 +1364,75 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Forrest_Gump</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Forrest_Gump</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La séquence où Forrest Gump court pendant des mois a été inspirée à Robert Zemeckis par des cas réels de personnes qui ont pour but unique dans la vie de courir.[réf. souhaitée] En 2020, Tom Hanks a révélé qu'il avait financé le tournage de cette scène, considérée comme trop coûteuse par les producteurs de la Paramount. Il a aussi révélé avoir financé une autre scène avec Robert Zemeckis (sans préciser laquelle) car le studio avait expliqué ne pas être en mesure d'obtenir une assurance pour le tournage de cette scène, en raison des conditions météorologiques ; Hanks et Zemeckis se chargèrent de payer l’assurance, demandant au studio qu'« ils devraient partager un peu plus les bénéfices du film avec [eux] »[36].
-Tom Hanks et Robert Zemeckis négocièrent leur contrat de façon à toucher un pourcentage sur les recettes du film (8 % sur les recettes brutes), gagnant ainsi 30 millions de dollars. L'auteur Winston Groom, qui négocia 3 % sur les recettes nettes, ne toucha que 350 000 dollars[37].
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>La séquence où Forrest Gump court pendant des mois a été inspirée à Robert Zemeckis par des cas réels de personnes qui ont pour but unique dans la vie de courir.[réf. souhaitée] En 2020, Tom Hanks a révélé qu'il avait financé le tournage de cette scène, considérée comme trop coûteuse par les producteurs de la Paramount. Il a aussi révélé avoir financé une autre scène avec Robert Zemeckis (sans préciser laquelle) car le studio avait expliqué ne pas être en mesure d'obtenir une assurance pour le tournage de cette scène, en raison des conditions météorologiques ; Hanks et Zemeckis se chargèrent de payer l’assurance, demandant au studio qu'« ils devraient partager un peu plus les bénéfices du film avec [eux] ».
+Tom Hanks et Robert Zemeckis négocièrent leur contrat de façon à toucher un pourcentage sur les recettes du film (8 % sur les recettes brutes), gagnant ainsi 30 millions de dollars. L'auteur Winston Groom, qui négocia 3 % sur les recettes nettes, ne toucha que 350 000 dollars.
 À un moment, le film présente une compagnie de pêche imaginaire, la « Bubba Gump Shrimp Company ». Deux ans après la sortie du film, une véritable chaîne de restaurants de fruits de mer portant ce nom fut créée.
 Lorsque Forrest annonce à l'ex-lieutenant Dan (Gary Sinise) qu'il va devenir capitaine de crevettier pour respecter la promesse faite à Bubba, Dan lui répond : « Si, un jour, t'es vraiment capitaine de crevettier, je crois que moi je serai astronaute ». L'année suivante, les deux acteurs tournaient dans Apollo 13 de Ron Howard. Gary Sinise jouera quelques années plus tard de nouveau un astronaute, dans le film Mission To Mars de Brian De Palma.
-Lors de la sortie française du film en DVD, le doublage a subi quelques petites retouches, entre autres la voix d'Elvis qui a été entièrement refaite.
-Projet de suite
-L'auteur du roman adapté, Winston Groom, écrit en 1995 une suite à Forrest Gump intitulée Gump and Co. (en). De son côté, Eric Roth écrit un scénario pour faire suite au film, mais peu lié au roman de Groom, dans lequel Forrest Gump doit faire face à son fils atteint du SIDA, est témoin de l'affaire O. J. Simpson et de l'attentat d'Oklahoma City, et danse avec la princesse Diana. Le scénario est finalisé le 10 septembre 2001, juste la veille des attentats du 11 septembre. Zemeckis, Hanks et Roth indiquent que le film n'a, alors, plus de raisons d'être[38].
+Lors de la sortie française du film en DVD, le doublage a subi quelques petites retouches, entre autres la voix d'Elvis qui a été entièrement refaite.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forrest_Gump</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Autour du film</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Projet de suite</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'auteur du roman adapté, Winston Groom, écrit en 1995 une suite à Forrest Gump intitulée Gump and Co. (en). De son côté, Eric Roth écrit un scénario pour faire suite au film, mais peu lié au roman de Groom, dans lequel Forrest Gump doit faire face à son fils atteint du SIDA, est témoin de l'affaire O. J. Simpson et de l'attentat d'Oklahoma City, et danse avec la princesse Diana. Le scénario est finalisé le 10 septembre 2001, juste la veille des attentats du 11 septembre. Zemeckis, Hanks et Roth indiquent que le film n'a, alors, plus de raisons d'être.
 </t>
         </is>
       </c>
